--- a/FM_DATA.xlsx
+++ b/FM_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajpalnati/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajpalnati/Downloads/BREWLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBCE919-3277-284D-896E-394BD9128689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938B0B48-A5BD-054B-8BDF-DBE9651B05D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="960" windowWidth="26940" windowHeight="15860" xr2:uid="{EB8E5159-0BE9-6E4F-B95A-E338F8D87A34}"/>
+    <workbookView xWindow="15580" yWindow="780" windowWidth="26940" windowHeight="15860" xr2:uid="{EB8E5159-0BE9-6E4F-B95A-E338F8D87A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Foot Traffic" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -590,8 +590,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -969,9 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E648A-7407-F946-81E4-08172F0572CD}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H234" sqref="H234"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,6 +1133,9 @@
       <c r="G5">
         <v>0.06</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -1161,6 +1162,9 @@
       <c r="G6">
         <v>0.06</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
@@ -1187,6 +1191,9 @@
       <c r="G7">
         <v>0.06</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
@@ -1300,6 +1307,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
@@ -1326,6 +1336,9 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>13</v>
       </c>
@@ -1352,6 +1365,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>14</v>
       </c>
@@ -1378,6 +1394,9 @@
       <c r="G14">
         <v>0.11</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
@@ -1404,6 +1423,9 @@
       <c r="G15">
         <v>0.11</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
         <v>13</v>
       </c>
@@ -1430,6 +1452,9 @@
       <c r="G16">
         <v>0.11</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
@@ -1456,6 +1481,9 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>12</v>
       </c>
@@ -1482,6 +1510,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18" t="s">
         <v>13</v>
       </c>
@@ -1508,6 +1539,9 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
@@ -1534,6 +1568,9 @@
       <c r="G20">
         <v>0</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
@@ -1560,6 +1597,9 @@
       <c r="G21">
         <v>0</v>
       </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21" t="s">
         <v>13</v>
       </c>
@@ -1586,6 +1626,9 @@
       <c r="G22">
         <v>0</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22" t="s">
         <v>14</v>
       </c>
@@ -1612,6 +1655,9 @@
       <c r="G23">
         <v>0</v>
       </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23" t="s">
         <v>12</v>
       </c>
@@ -1638,6 +1684,9 @@
       <c r="G24">
         <v>0</v>
       </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24" t="s">
         <v>13</v>
       </c>
@@ -1664,6 +1713,9 @@
       <c r="G25">
         <v>0</v>
       </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
@@ -1690,6 +1742,9 @@
       <c r="G26">
         <v>0.88</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26" t="s">
         <v>12</v>
       </c>
@@ -1716,6 +1771,9 @@
       <c r="G27">
         <v>0.88</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
@@ -1742,6 +1800,9 @@
       <c r="G28">
         <v>0.88</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
       <c r="I28" t="s">
         <v>14</v>
       </c>
@@ -1768,6 +1829,9 @@
       <c r="G29">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29" t="s">
         <v>12</v>
       </c>
@@ -1794,6 +1858,9 @@
       <c r="G30">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
       <c r="I30" t="s">
         <v>13</v>
       </c>
@@ -1820,6 +1887,9 @@
       <c r="G31">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31" t="s">
         <v>14</v>
       </c>
@@ -1846,6 +1916,9 @@
       <c r="G32">
         <v>0</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="I32" t="s">
         <v>12</v>
       </c>
@@ -1872,6 +1945,9 @@
       <c r="G33">
         <v>0</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33" t="s">
         <v>13</v>
       </c>
@@ -1898,6 +1974,9 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="I34" t="s">
         <v>14</v>
       </c>
@@ -1924,6 +2003,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35" t="s">
         <v>12</v>
       </c>
@@ -1950,6 +2032,9 @@
       <c r="G36">
         <v>0</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
@@ -1976,6 +2061,9 @@
       <c r="G37">
         <v>0</v>
       </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
       <c r="I37" t="s">
         <v>14</v>
       </c>
@@ -2089,6 +2177,9 @@
       <c r="G41">
         <v>0</v>
       </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
       <c r="I41" t="s">
         <v>12</v>
       </c>
@@ -2115,6 +2206,9 @@
       <c r="G42">
         <v>0</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42" t="s">
         <v>13</v>
       </c>
@@ -2141,6 +2235,9 @@
       <c r="G43">
         <v>0</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="I43" t="s">
         <v>14</v>
       </c>
@@ -2167,6 +2264,9 @@
       <c r="G44">
         <v>0.03</v>
       </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
       <c r="I44" t="s">
         <v>12</v>
       </c>
@@ -2193,6 +2293,9 @@
       <c r="G45">
         <v>0.03</v>
       </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
       <c r="I45" t="s">
         <v>13</v>
       </c>
@@ -2219,6 +2322,9 @@
       <c r="G46">
         <v>0.03</v>
       </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
       <c r="I46" t="s">
         <v>14</v>
       </c>
@@ -2332,6 +2438,9 @@
       <c r="G50">
         <v>0</v>
       </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
       <c r="I50" t="s">
         <v>12</v>
       </c>
@@ -2358,6 +2467,9 @@
       <c r="G51">
         <v>0</v>
       </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
       <c r="I51" t="s">
         <v>13</v>
       </c>
@@ -2384,6 +2496,9 @@
       <c r="G52">
         <v>0</v>
       </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
       <c r="I52" t="s">
         <v>14</v>
       </c>
@@ -2497,6 +2612,9 @@
       <c r="G56">
         <v>0</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
       <c r="I56" t="s">
         <v>12</v>
       </c>
@@ -2523,6 +2641,9 @@
       <c r="G57">
         <v>0</v>
       </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
       <c r="I57" t="s">
         <v>13</v>
       </c>
@@ -2549,6 +2670,9 @@
       <c r="G58">
         <v>0</v>
       </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
       <c r="I58" t="s">
         <v>14</v>
       </c>
@@ -2988,79 +3112,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>44863</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>3614</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74">
         <v>68</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74">
         <v>39</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74">
         <v>9</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74">
         <v>6.7</v>
       </c>
-      <c r="G74" s="5">
-        <v>0</v>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>44863</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>3614</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>68</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75">
         <v>39</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75">
         <v>9</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75">
         <v>6.7</v>
       </c>
-      <c r="G75" s="5">
-        <v>0</v>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>44863</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76">
         <v>3614</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76">
         <v>68</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76">
         <v>39</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76">
         <v>9</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76">
         <v>6.7</v>
       </c>
-      <c r="G76" s="5">
-        <v>0</v>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="I76" t="s">
         <v>14</v>
@@ -3176,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3205,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
         <v>13</v>
@@ -3234,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
@@ -3376,6 +3509,9 @@
       <c r="G86">
         <v>0</v>
       </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
       <c r="I86" t="s">
         <v>12</v>
       </c>
@@ -3411,6 +3547,9 @@
       <c r="G87">
         <v>0</v>
       </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
       <c r="I87" t="s">
         <v>13</v>
       </c>
@@ -3446,6 +3585,9 @@
       <c r="G88">
         <v>0</v>
       </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
       <c r="I88" t="s">
         <v>14</v>
       </c>
@@ -3481,6 +3623,9 @@
       <c r="G89">
         <v>0</v>
       </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
       <c r="I89" t="s">
         <v>12</v>
       </c>
@@ -3516,6 +3661,9 @@
       <c r="G90">
         <v>0</v>
       </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
       <c r="I90" t="s">
         <v>13</v>
       </c>
@@ -3551,6 +3699,9 @@
       <c r="G91">
         <v>0</v>
       </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
       <c r="I91" t="s">
         <v>14</v>
       </c>
@@ -3586,6 +3737,9 @@
       <c r="G92">
         <v>0</v>
       </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
       <c r="I92" t="s">
         <v>12</v>
       </c>
@@ -3621,6 +3775,9 @@
       <c r="G93">
         <v>0</v>
       </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
       <c r="I93" t="s">
         <v>13</v>
       </c>
@@ -3656,6 +3813,9 @@
       <c r="G94">
         <v>0</v>
       </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
       <c r="I94" t="s">
         <v>14</v>
       </c>
@@ -3691,6 +3851,9 @@
       <c r="G95">
         <v>0</v>
       </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
       <c r="I95" t="s">
         <v>12</v>
       </c>
@@ -3726,6 +3889,9 @@
       <c r="G96">
         <v>0</v>
       </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
       <c r="I96" t="s">
         <v>13</v>
       </c>
@@ -3761,6 +3927,9 @@
       <c r="G97">
         <v>0</v>
       </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
       <c r="I97" t="s">
         <v>14</v>
       </c>
@@ -3796,6 +3965,9 @@
       <c r="G98">
         <v>0</v>
       </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
       <c r="I98" t="s">
         <v>12</v>
       </c>
@@ -3831,6 +4003,9 @@
       <c r="G99">
         <v>0</v>
       </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
       <c r="I99" t="s">
         <v>13</v>
       </c>
@@ -3866,6 +4041,9 @@
       <c r="G100">
         <v>0</v>
       </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
       <c r="I100" t="s">
         <v>14</v>
       </c>
@@ -3901,6 +4079,9 @@
       <c r="G101">
         <v>0.31</v>
       </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
       <c r="I101" t="s">
         <v>12</v>
       </c>
@@ -3927,6 +4108,9 @@
       <c r="G102">
         <v>0.31</v>
       </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
       <c r="I102" t="s">
         <v>13</v>
       </c>
@@ -3953,6 +4137,9 @@
       <c r="G103">
         <v>0.31</v>
       </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
       <c r="I103" t="s">
         <v>14</v>
       </c>
@@ -3979,6 +4166,9 @@
       <c r="G104">
         <v>2.0099999999999998</v>
       </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
       <c r="I104" t="s">
         <v>12</v>
       </c>
@@ -4005,6 +4195,9 @@
       <c r="G105">
         <v>2.0099999999999998</v>
       </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
       <c r="I105" t="s">
         <v>13</v>
       </c>
@@ -4031,6 +4224,9 @@
       <c r="G106">
         <v>2.0099999999999998</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
       <c r="I106" t="s">
         <v>14</v>
       </c>
@@ -4057,6 +4253,9 @@
       <c r="G107">
         <v>0.01</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
       <c r="I107" t="s">
         <v>12</v>
       </c>
@@ -4092,6 +4291,9 @@
       <c r="G108">
         <v>0.01</v>
       </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
       <c r="I108" t="s">
         <v>13</v>
       </c>
@@ -4127,6 +4329,9 @@
       <c r="G109">
         <v>0.01</v>
       </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
       <c r="I109" t="s">
         <v>14</v>
       </c>
@@ -4162,6 +4367,9 @@
       <c r="G110">
         <v>0</v>
       </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
       <c r="I110" t="s">
         <v>12</v>
       </c>
@@ -4197,6 +4405,9 @@
       <c r="G111">
         <v>0</v>
       </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
       <c r="I111" t="s">
         <v>13</v>
       </c>
@@ -4232,6 +4443,9 @@
       <c r="G112">
         <v>0</v>
       </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
       <c r="I112" t="s">
         <v>14</v>
       </c>
@@ -4267,6 +4481,9 @@
       <c r="G113">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
       <c r="I113" t="s">
         <v>12</v>
       </c>
@@ -4302,6 +4519,9 @@
       <c r="G114">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
       <c r="I114" t="s">
         <v>13</v>
       </c>
@@ -4337,6 +4557,9 @@
       <c r="G115">
         <v>0.14000000000000001</v>
       </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
       <c r="I115" t="s">
         <v>14</v>
       </c>
@@ -4372,6 +4595,9 @@
       <c r="G116">
         <v>0</v>
       </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
       <c r="I116" t="s">
         <v>12</v>
       </c>
@@ -4407,6 +4633,9 @@
       <c r="G117">
         <v>0</v>
       </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
       <c r="I117" t="s">
         <v>13</v>
       </c>
@@ -4442,6 +4671,9 @@
       <c r="G118">
         <v>0</v>
       </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
       <c r="I118" t="s">
         <v>14</v>
       </c>
@@ -4477,6 +4709,9 @@
       <c r="G119">
         <v>0.1</v>
       </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
       <c r="I119" t="s">
         <v>12</v>
       </c>
@@ -4503,6 +4738,9 @@
       <c r="G120">
         <v>0.1</v>
       </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
       <c r="I120" t="s">
         <v>13</v>
       </c>
@@ -4529,6 +4767,9 @@
       <c r="G121">
         <v>0.1</v>
       </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
       <c r="I121" t="s">
         <v>14</v>
       </c>
@@ -4555,6 +4796,9 @@
       <c r="G122">
         <v>0</v>
       </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
       <c r="I122" t="s">
         <v>12</v>
       </c>
@@ -4581,6 +4825,9 @@
       <c r="G123">
         <v>0</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
       <c r="I123" t="s">
         <v>13</v>
       </c>
@@ -4607,6 +4854,9 @@
       <c r="G124">
         <v>0</v>
       </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
       <c r="I124" t="s">
         <v>14</v>
       </c>
@@ -4633,6 +4883,9 @@
       <c r="G125">
         <v>0.63</v>
       </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
       <c r="I125" t="s">
         <v>12</v>
       </c>
@@ -4659,6 +4912,9 @@
       <c r="G126">
         <v>0.63</v>
       </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
       <c r="I126" t="s">
         <v>13</v>
       </c>
@@ -4685,6 +4941,9 @@
       <c r="G127">
         <v>0.63</v>
       </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
       <c r="I127" t="s">
         <v>14</v>
       </c>
@@ -4798,6 +5057,9 @@
       <c r="G131">
         <v>0</v>
       </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
       <c r="I131" t="s">
         <v>12</v>
       </c>
@@ -4833,6 +5095,9 @@
       <c r="G132">
         <v>0</v>
       </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
       <c r="I132" t="s">
         <v>13</v>
       </c>
@@ -4868,6 +5133,9 @@
       <c r="G133">
         <v>0</v>
       </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
       <c r="I133" t="s">
         <v>14</v>
       </c>
@@ -5359,6 +5627,9 @@
       <c r="G146">
         <v>1.27</v>
       </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
       <c r="I146" t="s">
         <v>12</v>
       </c>
@@ -5385,6 +5656,9 @@
       <c r="G147">
         <v>1.27</v>
       </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
       <c r="I147" t="s">
         <v>13</v>
       </c>
@@ -5411,6 +5685,9 @@
       <c r="G148">
         <v>1.27</v>
       </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
       <c r="I148" t="s">
         <v>14</v>
       </c>
@@ -5839,6 +6116,9 @@
       <c r="G161">
         <v>0</v>
       </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
       <c r="I161" t="s">
         <v>12</v>
       </c>
@@ -5874,6 +6154,9 @@
       <c r="G162">
         <v>0</v>
       </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
       <c r="I162" t="s">
         <v>13</v>
       </c>
@@ -5909,6 +6192,9 @@
       <c r="G163">
         <v>0</v>
       </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
       <c r="I163" t="s">
         <v>14</v>
       </c>
@@ -5944,6 +6230,9 @@
       <c r="G164">
         <v>2.68</v>
       </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
       <c r="I164" t="s">
         <v>12</v>
       </c>
@@ -5979,6 +6268,9 @@
       <c r="G165">
         <v>2.68</v>
       </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
       <c r="I165" t="s">
         <v>13</v>
       </c>
@@ -6014,6 +6306,9 @@
       <c r="G166">
         <v>2.68</v>
       </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
       <c r="I166" t="s">
         <v>14</v>
       </c>
@@ -6049,6 +6344,9 @@
       <c r="G167">
         <v>2.68</v>
       </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
       <c r="I167" t="s">
         <v>15</v>
       </c>
@@ -6084,6 +6382,9 @@
       <c r="G168">
         <v>0.03</v>
       </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
       <c r="I168" t="s">
         <v>12</v>
       </c>
@@ -6110,6 +6411,9 @@
       <c r="G169">
         <v>0.03</v>
       </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
       <c r="I169" t="s">
         <v>13</v>
       </c>
@@ -6136,6 +6440,9 @@
       <c r="G170">
         <v>0.03</v>
       </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
       <c r="I170" t="s">
         <v>14</v>
       </c>
@@ -6162,6 +6469,9 @@
       <c r="G171">
         <v>0</v>
       </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
       <c r="I171" t="s">
         <v>12</v>
       </c>
@@ -6197,6 +6507,9 @@
       <c r="G172">
         <v>0</v>
       </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
       <c r="I172" t="s">
         <v>13</v>
       </c>
@@ -6232,6 +6545,9 @@
       <c r="G173">
         <v>0</v>
       </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
       <c r="I173" t="s">
         <v>14</v>
       </c>
@@ -6267,6 +6583,9 @@
       <c r="G174">
         <v>0</v>
       </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
       <c r="I174" t="s">
         <v>12</v>
       </c>
@@ -6302,6 +6621,9 @@
       <c r="G175">
         <v>0</v>
       </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
       <c r="I175" t="s">
         <v>13</v>
       </c>
@@ -6337,6 +6659,9 @@
       <c r="G176">
         <v>0</v>
       </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
       <c r="I176" t="s">
         <v>14</v>
       </c>
@@ -6372,6 +6697,9 @@
       <c r="G177">
         <v>0</v>
       </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
       <c r="I177" t="s">
         <v>12</v>
       </c>
@@ -6407,6 +6735,9 @@
       <c r="G178">
         <v>0</v>
       </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
       <c r="I178" t="s">
         <v>13</v>
       </c>
@@ -6442,6 +6773,9 @@
       <c r="G179">
         <v>0</v>
       </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
       <c r="I179" t="s">
         <v>14</v>
       </c>
@@ -6477,6 +6811,9 @@
       <c r="G180">
         <v>0.13</v>
       </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
       <c r="I180" t="s">
         <v>12</v>
       </c>
@@ -6512,6 +6849,9 @@
       <c r="G181">
         <v>0.13</v>
       </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
       <c r="I181" t="s">
         <v>13</v>
       </c>
@@ -6547,6 +6887,9 @@
       <c r="G182">
         <v>0.13</v>
       </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
       <c r="I182" t="s">
         <v>14</v>
       </c>
@@ -6582,6 +6925,9 @@
       <c r="G183">
         <v>0</v>
       </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
       <c r="I183" t="s">
         <v>12</v>
       </c>
@@ -6617,6 +6963,9 @@
       <c r="G184">
         <v>0</v>
       </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
       <c r="I184" t="s">
         <v>13</v>
       </c>
@@ -6652,6 +7001,9 @@
       <c r="G185">
         <v>0</v>
       </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
       <c r="I185" t="s">
         <v>14</v>
       </c>
@@ -6687,6 +7039,9 @@
       <c r="G186">
         <v>0</v>
       </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
       <c r="I186" t="s">
         <v>12</v>
       </c>
@@ -6722,6 +7077,9 @@
       <c r="G187">
         <v>0</v>
       </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
       <c r="I187" t="s">
         <v>13</v>
       </c>
@@ -6757,6 +7115,9 @@
       <c r="G188">
         <v>0</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
       <c r="I188" t="s">
         <v>14</v>
       </c>
@@ -6792,6 +7153,9 @@
       <c r="G189">
         <v>0</v>
       </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
       <c r="I189" t="s">
         <v>12</v>
       </c>
@@ -6827,6 +7191,9 @@
       <c r="G190">
         <v>0</v>
       </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
       <c r="I190" t="s">
         <v>13</v>
       </c>
@@ -6862,6 +7229,9 @@
       <c r="G191">
         <v>0</v>
       </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
       <c r="I191" t="s">
         <v>14</v>
       </c>
@@ -6897,6 +7267,9 @@
       <c r="G192">
         <v>0</v>
       </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
       <c r="I192" t="s">
         <v>12</v>
       </c>
@@ -6932,6 +7305,9 @@
       <c r="G193">
         <v>0</v>
       </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
       <c r="I193" t="s">
         <v>13</v>
       </c>
@@ -6967,6 +7343,9 @@
       <c r="G194">
         <v>0</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
       <c r="I194" t="s">
         <v>14</v>
       </c>
@@ -7002,6 +7381,9 @@
       <c r="G195">
         <v>0</v>
       </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
       <c r="I195" t="s">
         <v>12</v>
       </c>
@@ -7037,6 +7419,9 @@
       <c r="G196">
         <v>0</v>
       </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
       <c r="I196" t="s">
         <v>13</v>
       </c>
@@ -7072,6 +7457,9 @@
       <c r="G197">
         <v>0</v>
       </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
       <c r="I197" t="s">
         <v>14</v>
       </c>
@@ -7107,6 +7495,9 @@
       <c r="G198">
         <v>0</v>
       </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
       <c r="I198" t="s">
         <v>12</v>
       </c>
@@ -7142,6 +7533,9 @@
       <c r="G199">
         <v>0</v>
       </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
       <c r="I199" t="s">
         <v>13</v>
       </c>
@@ -7177,6 +7571,9 @@
       <c r="G200">
         <v>0</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
       <c r="I200" t="s">
         <v>14</v>
       </c>
@@ -7212,6 +7609,9 @@
       <c r="G201">
         <v>0.15</v>
       </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
       <c r="I201" t="s">
         <v>12</v>
       </c>
@@ -7238,6 +7638,9 @@
       <c r="G202">
         <v>0.15</v>
       </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
       <c r="I202" t="s">
         <v>13</v>
       </c>
@@ -7264,6 +7667,9 @@
       <c r="G203">
         <v>0.15</v>
       </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
       <c r="I203" t="s">
         <v>14</v>
       </c>
@@ -7290,6 +7696,9 @@
       <c r="G204">
         <v>0</v>
       </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
       <c r="I204" t="s">
         <v>12</v>
       </c>
@@ -7325,6 +7734,9 @@
       <c r="G205">
         <v>0</v>
       </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
       <c r="I205" t="s">
         <v>13</v>
       </c>
@@ -7360,6 +7772,9 @@
       <c r="G206">
         <v>0</v>
       </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
       <c r="I206" t="s">
         <v>14</v>
       </c>
@@ -7851,6 +8266,9 @@
       <c r="G219">
         <v>0.25</v>
       </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
       <c r="I219" t="s">
         <v>12</v>
       </c>
@@ -7877,6 +8295,9 @@
       <c r="G220">
         <v>0.25</v>
       </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
       <c r="I220" t="s">
         <v>13</v>
       </c>
@@ -7902,6 +8323,9 @@
       </c>
       <c r="G221">
         <v>0.25</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
       </c>
       <c r="I221" t="s">
         <v>14</v>
